--- a/document/機能一覧_平和島.xlsx
+++ b/document/機能一覧_平和島.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-1\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C33A1-7D6C-4361-B248-78380BD6C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50797876-D6D6-4F82-B20F-A978FB49BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2340" windowWidth="19800" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -685,46 +685,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回答状態を質問者側は対応中に、質問者は完了に変更することができるようにし、現在の回答状態を把握できるようにする。選択しないと未対応状態となる。</t>
-    <rPh sb="0" eb="4">
-      <t>カイトウジョウタイ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>シツモンシャガワ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>タイオウチュウ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>シツモンシャ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>カイトウジョウタイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="62" eb="65">
-      <t>ミタイオウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>返信機能</t>
     <rPh sb="0" eb="2">
       <t>ヘンシン</t>
@@ -978,6 +938,40 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答状態を対応中か完了に変更することができるようにし、現在の回答状態を把握できるようにする。選択しないと未対応状態となる。</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タイオウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>カイトウジョウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>ミタイオウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1461,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1650,13 +1644,13 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="H12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>24</v>
@@ -1721,7 +1715,7 @@
         <v>37</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>38</v>
@@ -1850,17 +1844,17 @@
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>24</v>
@@ -1876,13 +1870,13 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>24</v>
@@ -1898,7 +1892,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>54</v>
@@ -1944,13 +1938,13 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>24</v>
@@ -1966,13 +1960,13 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>24</v>
@@ -1988,13 +1982,13 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>24</v>
@@ -2040,7 +2034,7 @@
         <v>69</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>24</v>
@@ -2057,13 +2051,13 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>24</v>
